--- a/data/CARTERA_CASTIGO_PAGOS_20210527.xlsx
+++ b/data/CARTERA_CASTIGO_PAGOS_20210527.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP\BI\CIP_DM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="27870" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="27870" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PERIODO" sheetId="2" r:id="rId1"/>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H11" activeCellId="1" sqref="A2:E160 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
